--- a/sccincc/public/callreportchart.xlsx
+++ b/sccincc/public/callreportchart.xlsx
@@ -14,13 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>通话记录：2014-01-06 至 2014-01-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期/坐席</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>通话记录：2014-01-01 至 2014-12-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份/坐席</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,7 +72,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星期一</t>
+    <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -80,27 +80,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星期二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期日</t>
+    <t>2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,66 +1113,391 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U11" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
